--- a/data/trans_bre/P1804_2016_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1804_2016_2023-Habitat-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>2.082240114886033</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2.932937124968254</v>
+        <v>2.932937124968253</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.4620818167629135</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.8217404966707545</v>
+        <v>0.8217404966707542</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3731512528795572</v>
+        <v>-0.1171319234787627</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1960337074810564</v>
+        <v>0.136833356420763</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.09828939630060897</v>
+        <v>-0.0237833217019994</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.07548687250547938</v>
+        <v>-0.01846875414427269</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.859009200074421</v>
+        <v>4.731775807237396</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.359112755667533</v>
+        <v>5.298464612472793</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1.504238893185423</v>
+        <v>1.375416756743645</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2.084856818856609</v>
+        <v>2.204189010334626</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>3.033776161497228</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4194318414845466</v>
+        <v>0.419431841484548</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.5342747537904831</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.04943825219109763</v>
+        <v>0.0494382521910978</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9116888324266585</v>
+        <v>0.7992169400183671</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.49737632489909</v>
+        <v>-2.488117518807697</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1315698080215515</v>
+        <v>0.09361730889732339</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2455753787269351</v>
+        <v>-0.2337864771244862</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.495203956551114</v>
+        <v>5.338023851754802</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.974150815991439</v>
+        <v>2.984335935106367</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.190960488197906</v>
+        <v>1.100078685742873</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4249787934142178</v>
+        <v>0.4362181600295609</v>
       </c>
     </row>
     <row r="10">
@@ -720,7 +720,7 @@
         <v>6.293164757053267</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.106810856771378</v>
+        <v>3.106810856771377</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>1.192369699809806</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.607112747159801</v>
+        <v>3.458842781994603</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.257525236600788</v>
+        <v>1.186420595398703</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.5474781147770582</v>
+        <v>0.4916257911844508</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.2961962411183091</v>
+        <v>0.2694278012256289</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.998752021364146</v>
+        <v>9.219968856670594</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.313843281620937</v>
+        <v>4.97746511012706</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>2.093172876444263</v>
+        <v>2.212301678151307</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.513880123165669</v>
+        <v>2.187622487967197</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>2.980033705007061</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.072536624131843</v>
+        <v>3.072536624131844</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.3281759980708449</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.3777493962624174</v>
+        <v>0.3777493962624175</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1601301240269249</v>
+        <v>0.2376707919235012</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4654559352209623</v>
+        <v>0.6501115694338434</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.01323039337021327</v>
+        <v>0.01760288257582792</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04881089839802688</v>
+        <v>0.06387961833205551</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.892030485234847</v>
+        <v>6.073587159919152</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.342374667967863</v>
+        <v>5.52888085718756</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7548235510256163</v>
+        <v>0.7696128768508503</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.788067251841336</v>
+        <v>0.8285957489150624</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>3.632755820163215</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.338949368482993</v>
+        <v>2.338949368482994</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.577044948382943</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.3780510255299203</v>
+        <v>0.3780510255299206</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.360596873602654</v>
+        <v>2.169968653069959</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.009312888989665</v>
+        <v>1.082597458688649</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.3210456711560931</v>
+        <v>0.3219667566001869</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.1511259074045423</v>
+        <v>0.1474890530914927</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.845197745025372</v>
+        <v>4.990007700283179</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.552627794391635</v>
+        <v>3.582702401123536</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.8399033454895636</v>
+        <v>0.8852818008788785</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.6554439327692426</v>
+        <v>0.6699329628820397</v>
       </c>
     </row>
     <row r="19">
